--- a/teaching/traditional_assets/database/data/south_africa/south_africa_household_products.xlsx
+++ b/teaching/traditional_assets/database/data/south_africa/south_africa_household_products.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.166</v>
+        <v>-0.241</v>
       </c>
       <c r="G2">
-        <v>-0.04153225806451613</v>
+        <v>-0.007407407407407407</v>
       </c>
       <c r="H2">
-        <v>-0.05040322580645162</v>
+        <v>-0.01703703703703703</v>
       </c>
       <c r="I2">
-        <v>-0.01209677419354839</v>
+        <v>-0.2162962962962963</v>
       </c>
       <c r="J2">
-        <v>-0.01209677419354839</v>
+        <v>-0.2162962962962963</v>
       </c>
       <c r="K2">
-        <v>-0.115</v>
+        <v>-0.272</v>
       </c>
       <c r="L2">
-        <v>-0.04637096774193548</v>
+        <v>-0.2014814814814815</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="V2">
-        <v>0.003389830508474576</v>
+        <v>0.001058201058201058</v>
       </c>
       <c r="W2">
-        <v>-0.0391156462585034</v>
+        <v>-0.09927007299270073</v>
       </c>
       <c r="X2">
-        <v>0.1117723989966508</v>
+        <v>0.08399743193505964</v>
       </c>
       <c r="Y2">
-        <v>-0.1508880452551542</v>
+        <v>-0.1832675049277604</v>
       </c>
       <c r="Z2">
-        <v>0.5827067669172932</v>
+        <v>0.3613490364025695</v>
       </c>
       <c r="AA2">
-        <v>-0.007048872180451127</v>
+        <v>-0.07815845824411133</v>
       </c>
       <c r="AB2">
-        <v>0.1053513007974594</v>
+        <v>0.07767800168920949</v>
       </c>
       <c r="AC2">
-        <v>-0.1124001729779105</v>
+        <v>-0.1558364599333208</v>
       </c>
       <c r="AD2">
-        <v>1.24</v>
+        <v>0.323</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.24</v>
+        <v>0.323</v>
       </c>
       <c r="AG2">
-        <v>1.23</v>
+        <v>0.321</v>
       </c>
       <c r="AH2">
-        <v>0.2959427207637231</v>
+        <v>0.1459557162223226</v>
       </c>
       <c r="AI2">
-        <v>0.3115577889447236</v>
+        <v>0.1306105944197331</v>
       </c>
       <c r="AJ2">
-        <v>0.2942583732057417</v>
+        <v>0.1451831750339213</v>
       </c>
       <c r="AK2">
-        <v>0.309823677581864</v>
+        <v>0.1299069202751922</v>
       </c>
       <c r="AL2">
-        <v>0.164</v>
+        <v>0.1</v>
       </c>
       <c r="AM2">
-        <v>0.153</v>
+        <v>0.1</v>
       </c>
       <c r="AN2">
-        <v>37.57575757575757</v>
+        <v>-1.386266094420601</v>
       </c>
       <c r="AO2">
-        <v>-0.1829268292682927</v>
+        <v>-2.919999999999999</v>
       </c>
       <c r="AP2">
-        <v>37.27272727272727</v>
+        <v>-1.377682403433476</v>
       </c>
       <c r="AQ2">
-        <v>-0.196078431372549</v>
+        <v>-2.919999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.166</v>
+        <v>-0.241</v>
       </c>
       <c r="G3">
-        <v>-0.04153225806451613</v>
+        <v>-0.007407407407407407</v>
       </c>
       <c r="H3">
-        <v>-0.05040322580645162</v>
+        <v>-0.01703703703703703</v>
       </c>
       <c r="I3">
-        <v>-0.01209677419354839</v>
+        <v>-0.2162962962962963</v>
       </c>
       <c r="J3">
-        <v>-0.01209677419354839</v>
+        <v>-0.2162962962962963</v>
       </c>
       <c r="K3">
-        <v>-0.115</v>
+        <v>-0.272</v>
       </c>
       <c r="L3">
-        <v>-0.04637096774193548</v>
+        <v>-0.2014814814814815</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="V3">
-        <v>0.003389830508474576</v>
+        <v>0.001058201058201058</v>
       </c>
       <c r="W3">
-        <v>-0.0391156462585034</v>
+        <v>-0.09927007299270073</v>
       </c>
       <c r="X3">
-        <v>0.1117723989966508</v>
+        <v>0.08399743193505964</v>
       </c>
       <c r="Y3">
-        <v>-0.1508880452551542</v>
+        <v>-0.1832675049277604</v>
       </c>
       <c r="Z3">
-        <v>0.5827067669172932</v>
+        <v>0.3613490364025695</v>
       </c>
       <c r="AA3">
-        <v>-0.007048872180451127</v>
+        <v>-0.07815845824411133</v>
       </c>
       <c r="AB3">
-        <v>0.1053513007974594</v>
+        <v>0.07767800168920949</v>
       </c>
       <c r="AC3">
-        <v>-0.1124001729779105</v>
+        <v>-0.1558364599333208</v>
       </c>
       <c r="AD3">
-        <v>1.24</v>
+        <v>0.323</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.24</v>
+        <v>0.323</v>
       </c>
       <c r="AG3">
-        <v>1.23</v>
+        <v>0.321</v>
       </c>
       <c r="AH3">
-        <v>0.2959427207637231</v>
+        <v>0.1459557162223226</v>
       </c>
       <c r="AI3">
-        <v>0.3115577889447236</v>
+        <v>0.1306105944197331</v>
       </c>
       <c r="AJ3">
-        <v>0.2942583732057417</v>
+        <v>0.1451831750339213</v>
       </c>
       <c r="AK3">
-        <v>0.309823677581864</v>
+        <v>0.1299069202751922</v>
       </c>
       <c r="AL3">
-        <v>0.164</v>
+        <v>0.1</v>
       </c>
       <c r="AM3">
-        <v>0.153</v>
+        <v>0.1</v>
       </c>
       <c r="AN3">
-        <v>37.57575757575757</v>
+        <v>-1.386266094420601</v>
       </c>
       <c r="AO3">
-        <v>-0.1829268292682927</v>
+        <v>-2.919999999999999</v>
       </c>
       <c r="AP3">
-        <v>37.27272727272727</v>
+        <v>-1.377682403433476</v>
       </c>
       <c r="AQ3">
-        <v>-0.196078431372549</v>
+        <v>-2.919999999999999</v>
       </c>
     </row>
   </sheetData>
